--- a/Smiles-处理后.xlsx
+++ b/Smiles-处理后.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/程序/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://76rp4l-my.sharepoint.com/personal/nothingnessvoid_76rp4l_onmicrosoft_com/Documents/学校用/毕业设计/Graduation-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4DA82427541F7ACA7EB81F800A1BA26BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E3808B6-8C69-424A-9237-E89E38F5816C}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_AD4DA82427541F7ACA7EB81F800A1BA26BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A3DDEE-31A0-4451-B7C8-FFE0E8B6354D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-26505" yWindow="450" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
